--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_e5.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_e5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaines\Desktop\Method Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471682D9-C63B-D34A-AE08-B2162FCBF232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COND_FC" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">COND_FC!$B:$C</definedName>
     <definedName name="Print_Titles_MI" localSheetId="0">COND_FC!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0_)"/>
     <numFmt numFmtId="165" formatCode="0.0_)"/>
@@ -147,9 +148,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -164,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -293,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,29 +503,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AJ1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="AN6" sqref="AN6"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="13"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="27" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="12"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -841,8 +876,8 @@
       <c r="IV1" s="6"/>
       <c r="IW1" s="6"/>
     </row>
-    <row r="2" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4">
@@ -1110,8 +1145,8 @@
       <c r="IV2"/>
       <c r="IW2"/>
     </row>
-    <row r="3" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
@@ -1192,8 +1227,8 @@
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
     </row>
-    <row r="4" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
@@ -1274,8 +1309,8 @@
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
     </row>
-    <row r="5" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
@@ -1349,8 +1384,8 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
     </row>
-    <row r="6" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
       <c r="B6" s="1">
         <v>23</v>
       </c>
@@ -1415,8 +1450,8 @@
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
     </row>
-    <row r="7" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
       <c r="B7" s="1">
         <v>10</v>
       </c>
@@ -1491,8 +1526,8 @@
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
     </row>
-    <row r="8" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
       <c r="B8" s="1">
         <v>25</v>
       </c>
@@ -1559,8 +1594,8 @@
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
     </row>
-    <row r="9" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
       <c r="B9" s="1">
         <v>16</v>
       </c>
@@ -1623,8 +1658,8 @@
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
     </row>
-    <row r="10" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
       <c r="B10" s="1">
         <v>17</v>
       </c>
@@ -1689,8 +1724,8 @@
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
     </row>
-    <row r="11" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1749,8 +1784,8 @@
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
     </row>
-    <row r="12" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -1809,8 +1844,8 @@
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
     </row>
-    <row r="13" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -1869,8 +1904,8 @@
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
     </row>
-    <row r="14" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1933,8 +1968,8 @@
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
     </row>
-    <row r="15" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
       <c r="B15" s="1">
         <v>18</v>
       </c>
@@ -1998,8 +2033,8 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
     </row>
-    <row r="16" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2051,8 +2086,8 @@
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
     </row>
-    <row r="17" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -2104,8 +2139,8 @@
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
     </row>
-    <row r="18" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2157,9 +2192,9 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
     </row>
-    <row r="19" spans="1:257" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3"/>
@@ -2210,8 +2245,8 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
     </row>
-    <row r="20" spans="1:257" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
@@ -2472,8 +2507,8 @@
       <c r="IV20" s="5"/>
       <c r="IW20" s="5"/>
     </row>
-    <row r="21" spans="1:257" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3"/>
@@ -2524,8 +2559,8 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
     </row>
-    <row r="22" spans="1:257" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3"/>
@@ -2576,8 +2611,8 @@
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
     </row>
-    <row r="23" spans="1:257" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3"/>
@@ -2628,8 +2663,8 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
     </row>
-    <row r="24" spans="1:257" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="3"/>
@@ -2680,8 +2715,8 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
     </row>
-    <row r="25" spans="1:257" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
+    <row r="25" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B25" s="9"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2728,8 +2763,8 @@
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
     </row>
-    <row r="26" spans="1:257" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
+    <row r="26" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2776,7 +2811,7 @@
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
     </row>
-    <row r="27" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:257" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2824,7 +2859,7 @@
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
     </row>
-    <row r="28" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:257" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2872,7 +2907,7 @@
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
     </row>
-    <row r="29" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:257" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2921,7 +2956,7 @@
       <c r="AU29" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:IW29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IW29">
     <sortCondition ref="A2:A29"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
